--- a/PPI/History PPI Jensoed.xlsx
+++ b/PPI/History PPI Jensoed.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Intan</t>
+  </si>
+  <si>
+    <t>Selvi Rahayu</t>
+  </si>
+  <si>
+    <t>Ayi Hiban</t>
+  </si>
+  <si>
+    <t>Erwin Oktapian</t>
+  </si>
+  <si>
+    <t>Indri Mega Utami</t>
+  </si>
+  <si>
+    <t>Penggerek</t>
   </si>
 </sst>
 </file>
@@ -167,9 +182,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -186,6 +198,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,7 +516,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,200 +552,218 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1">
         <v>2010</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2">
         <v>2011</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3">
         <v>2012</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2">
         <v>2013</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="4">
-        <v>2014</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="3">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
         <v>2015</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="4">
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
         <v>2016</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="3">
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
         <v>2017</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>2018</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2019</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2021</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>2021</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
